--- a/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho_PWdata.xlsx
+++ b/docs/UCB_Densimeter_fitting/Input_files/merged_df_wrho_PWdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\UCB_Densimeter_fitting\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8294DA-8F5C-42CE-AB3F-6FBF8A91FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1C1C4-CCF2-4942-829A-9C283EDE500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="326">
   <si>
     <t>Corrected_Splitting</t>
   </si>
@@ -1009,6 +1009,9 @@
   </si>
   <si>
     <t>1220_1400_new</t>
+  </si>
+  <si>
+    <t>1117_1400_new</t>
   </si>
 </sst>
 </file>
@@ -1120,479 +1123,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$BW$36:$BW$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.99722993225060697</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99721763564655297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99721451169660402</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99721084017634298</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.997206264822875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99720289735776901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.997179205024045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99717561742693495</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99717181321564197</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99716843011315204</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99716359070680005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99716069573519395</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99715779648863001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.997154136352425</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99715059105855097</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99714721067484302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99714275342648095</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.99713107415422797</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.99712790777703797</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99712484407394597</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.99712238949140097</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.99711985062993203</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99711711352037102</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99710854918974101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.997107217498168</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.99710596553444597</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.99710479579015898</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.99710358128030097</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.99710245932351904</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.99710144856174199</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.99709991767385497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$BX$36:$BX$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.0026367010951001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.00261299159995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0026070473517901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0026001054501701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0025915248989501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0025852620226301</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.00254266582006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0025364787203801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.00253000796681</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0025243367427801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.00251637190178</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.00251169708871</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0025070882457501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.00250138196716</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.00249598437929</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.00249096813338</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.00248457007559</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0024692435952101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.00246553987386</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.00246218915153</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.00245969418908</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.00245731759609</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.00245502503519</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.00245037085488</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0024501351355199</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0024500858402801</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0024502168565801</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0024505682050699</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.00245112822407</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0024518703712599</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0024535550296401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B0E-4AA4-AD11-3FD208CA580A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1648106463"/>
-        <c:axId val="1925041487"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1648106463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1925041487"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1925041487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1648106463"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2153,563 +1683,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3229,16 +2203,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>282840</xdr:colOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>35190</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>6542</xdr:rowOff>
+      <xdr:rowOff>57342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3261,8 +2235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51288950" y="7312025"/>
-          <a:ext cx="5153290" cy="3746692"/>
+          <a:off x="54187725" y="7543800"/>
+          <a:ext cx="5150115" cy="3743517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3317,16 +2291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>76653</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171679</xdr:rowOff>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>438603</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>105004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3349,8 +2323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51682650" y="6410325"/>
-          <a:ext cx="8820603" cy="4448404"/>
+          <a:off x="54578250" y="6702425"/>
+          <a:ext cx="8820603" cy="4451579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3401,42 +2375,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CC53DB-8EC5-3FF8-DD32-668CDC2FF09E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3770,12 +2708,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX66"/>
+  <dimension ref="A1:BY66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BK1" sqref="BK1"/>
-      <selection pane="bottomLeft" activeCell="CB5" sqref="CB5"/>
+      <selection pane="bottomLeft" activeCell="BV40" sqref="BV40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3784,9 +2722,13 @@
     <col min="62" max="62" width="33.81640625" customWidth="1"/>
     <col min="63" max="63" width="28.26953125" customWidth="1"/>
     <col min="72" max="72" width="16.90625" customWidth="1"/>
+    <col min="74" max="74" width="18" customWidth="1"/>
+    <col min="75" max="75" width="19.26953125" customWidth="1"/>
+    <col min="76" max="76" width="16.453125" customWidth="1"/>
+    <col min="77" max="77" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4012,8 +2954,11 @@
       <c r="BX1" s="6" t="s">
         <v>324</v>
       </c>
+      <c r="BY1" s="6" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4240,8 +3185,11 @@
       <c r="BX2">
         <v>1.00255164368519</v>
       </c>
+      <c r="BY2">
+        <v>0.99729030596727197</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4468,8 +3416,11 @@
       <c r="BX3">
         <v>1.0025458214704199</v>
       </c>
+      <c r="BY3">
+        <v>0.99728479122013203</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4696,8 +3647,11 @@
       <c r="BX4">
         <v>1.0025426400375901</v>
       </c>
+      <c r="BY4">
+        <v>0.99728182190004899</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4924,8 +3878,11 @@
       <c r="BX5">
         <v>1.00254043035986</v>
       </c>
+      <c r="BY5">
+        <v>0.99727978102119497</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5152,8 +4109,11 @@
       <c r="BX6">
         <v>1.00253032820298</v>
       </c>
+      <c r="BY6">
+        <v>0.99727074451493203</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5380,8 +4340,11 @@
       <c r="BX7">
         <v>1.0025276114916399</v>
       </c>
+      <c r="BY7">
+        <v>0.99726842588873998</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5608,8 +4571,11 @@
       <c r="BX8">
         <v>1.0026627818462099</v>
       </c>
+      <c r="BY8">
+        <v>0.99740384761731005</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5836,8 +4802,11 @@
       <c r="BX9">
         <v>1.0025258716922301</v>
       </c>
+      <c r="BY9">
+        <v>0.99726697573310996</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6064,8 +5033,11 @@
       <c r="BX10">
         <v>1.00251836455362</v>
       </c>
+      <c r="BY10">
+        <v>0.99726118748205494</v>
+      </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6292,8 +5264,11 @@
       <c r="BX11">
         <v>1.0025158718377101</v>
       </c>
+      <c r="BY11">
+        <v>0.997259550023885</v>
+      </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6520,8 +5495,11 @@
       <c r="BX12">
         <v>1.00251449178269</v>
       </c>
+      <c r="BY12">
+        <v>0.99725876000273095</v>
+      </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6730,8 +5708,11 @@
       <c r="BX13">
         <v>1.00251271165954</v>
       </c>
+      <c r="BY13">
+        <v>0.99725795039542997</v>
+      </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6958,8 +5939,11 @@
       <c r="BX14">
         <v>1.0025119573431001</v>
       </c>
+      <c r="BY14">
+        <v>0.997257727143818</v>
+      </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7186,8 +6170,11 @@
       <c r="BX15">
         <v>1.0025110997642901</v>
       </c>
+      <c r="BY15">
+        <v>0.99725763939604595</v>
+      </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7414,8 +6401,11 @@
       <c r="BX16">
         <v>1.0025103538531901</v>
       </c>
+      <c r="BY16">
+        <v>0.99725788260842796</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7642,8 +6632,11 @@
       <c r="BX17">
         <v>1.0025101035606601</v>
       </c>
+      <c r="BY17">
+        <v>0.99725815003891005</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7870,8 +6863,11 @@
       <c r="BX18">
         <v>1.00250992923023</v>
       </c>
+      <c r="BY18">
+        <v>0.99725853913515095</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8098,8 +7094,11 @@
       <c r="BX19">
         <v>1.0026546122368101</v>
       </c>
+      <c r="BY19">
+        <v>0.99739522980757001</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8326,8 +7325,11 @@
       <c r="BX20">
         <v>1.00250984497069</v>
       </c>
+      <c r="BY20">
+        <v>0.99725909936146595</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8554,8 +7556,11 @@
       <c r="BX21">
         <v>1.00250989016869</v>
       </c>
+      <c r="BY21">
+        <v>0.99725990704947198</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
@@ -8570,8 +7575,11 @@
       <c r="BX22">
         <v>1.0025100145475501</v>
       </c>
+      <c r="BY22">
+        <v>0.997260589397578</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -8798,8 +7806,11 @@
       <c r="BX23">
         <v>1.0025102660167999</v>
       </c>
+      <c r="BY23">
+        <v>0.99726152964224002</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9026,8 +8037,11 @@
       <c r="BX24">
         <v>1.0025108161493901</v>
       </c>
+      <c r="BY24">
+        <v>0.99726309303632499</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -9254,8 +8268,11 @@
       <c r="BX25">
         <v>1.00251180406759</v>
       </c>
+      <c r="BY25">
+        <v>0.99726538126639996</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -9482,8 +8499,11 @@
       <c r="BX26">
         <v>1.00251276309104</v>
       </c>
+      <c r="BY26">
+        <v>0.99726734673035999</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -9710,8 +8730,11 @@
       <c r="BX27">
         <v>1.00251391230467</v>
       </c>
+      <c r="BY27">
+        <v>0.99726953420352604</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -9938,8 +8961,11 @@
       <c r="BX28">
         <v>1.0025154458803101</v>
       </c>
+      <c r="BY28">
+        <v>0.99727228384607802</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -10166,8 +9192,11 @@
       <c r="BX29">
         <v>1.00251697270058</v>
       </c>
+      <c r="BY29">
+        <v>0.99727489758202603</v>
+      </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -10394,8 +9423,11 @@
       <c r="BX30">
         <v>1.00265301903758</v>
       </c>
+      <c r="BY30">
+        <v>0.99739355219744796</v>
+      </c>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -10622,8 +9654,11 @@
       <c r="BX31">
         <v>1.00263089766581</v>
       </c>
+      <c r="BY31">
+        <v>0.99737037214549895</v>
+      </c>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -10850,8 +9885,11 @@
       <c r="BX32">
         <v>1.0026292728661099</v>
       </c>
+      <c r="BY32">
+        <v>0.99736867876498503</v>
+      </c>
     </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -11078,8 +10116,11 @@
       <c r="BX33">
         <v>1.0026201988900001</v>
       </c>
+      <c r="BY33">
+        <v>0.997359248131089</v>
+      </c>
     </row>
-    <row r="34" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -11306,8 +10347,11 @@
       <c r="BX34">
         <v>1.00261052530686</v>
       </c>
+      <c r="BY34">
+        <v>0.99734924823593696</v>
+      </c>
     </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -11507,8 +10551,11 @@
       <c r="BX35">
         <v>1.0026074785788299</v>
       </c>
+      <c r="BY35">
+        <v>0.99734611148493801</v>
+      </c>
     </row>
-    <row r="36" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -11735,8 +10782,11 @@
       <c r="BX36" s="4">
         <v>1.0026367010951001</v>
       </c>
+      <c r="BY36" s="4">
+        <v>0.99738826759558696</v>
+      </c>
     </row>
-    <row r="37" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -11963,8 +11013,11 @@
       <c r="BX37">
         <v>1.00261299159995</v>
       </c>
+      <c r="BY37">
+        <v>0.99736659047463005</v>
+      </c>
     </row>
-    <row r="38" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -12191,8 +11244,11 @@
       <c r="BX38">
         <v>1.0026070473517901</v>
       </c>
+      <c r="BY38">
+        <v>0.99736113393450998</v>
+      </c>
     </row>
-    <row r="39" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -12419,8 +11475,11 @@
       <c r="BX39">
         <v>1.0026001054501701</v>
       </c>
+      <c r="BY39">
+        <v>0.997354749223059</v>
+      </c>
     </row>
-    <row r="40" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -12647,8 +11706,11 @@
       <c r="BX40">
         <v>1.0025915248989501</v>
       </c>
+      <c r="BY40">
+        <v>0.9973468376215</v>
+      </c>
     </row>
-    <row r="41" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -12875,8 +11937,11 @@
       <c r="BX41">
         <v>1.0025852620226301</v>
       </c>
+      <c r="BY41">
+        <v>0.997341048139883</v>
+      </c>
     </row>
-    <row r="42" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -13085,8 +12150,11 @@
       <c r="BX42">
         <v>1.00254266582006</v>
       </c>
+      <c r="BY42">
+        <v>0.99730125206670395</v>
+      </c>
     </row>
-    <row r="43" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -13295,8 +12363,11 @@
       <c r="BX43">
         <v>1.0025364787203801</v>
       </c>
+      <c r="BY43">
+        <v>0.99729539388072797</v>
+      </c>
     </row>
-    <row r="44" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -13496,8 +12567,11 @@
       <c r="BX44">
         <v>1.00253000796681</v>
       </c>
+      <c r="BY44">
+        <v>0.99728923938985203</v>
+      </c>
     </row>
-    <row r="45" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -13706,8 +12780,11 @@
       <c r="BX45">
         <v>1.0025243367427801</v>
       </c>
+      <c r="BY45">
+        <v>0.997283819320257</v>
+      </c>
     </row>
-    <row r="46" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -13916,8 +12993,11 @@
       <c r="BX46">
         <v>1.00251637190178</v>
       </c>
+      <c r="BY46">
+        <v>0.99727616036426703</v>
+      </c>
     </row>
-    <row r="47" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -14126,8 +13206,11 @@
       <c r="BX47">
         <v>1.00251169708871</v>
       </c>
+      <c r="BY47">
+        <v>0.99727163605844804</v>
+      </c>
     </row>
-    <row r="48" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -14336,8 +13419,11 @@
       <c r="BX48">
         <v>1.0025070882457501</v>
       </c>
+      <c r="BY48">
+        <v>0.99726715159624801</v>
+      </c>
     </row>
-    <row r="49" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -14546,8 +13632,11 @@
       <c r="BX49">
         <v>1.00250138196716</v>
       </c>
+      <c r="BY49">
+        <v>0.99726156179967596</v>
+      </c>
     </row>
-    <row r="50" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -14756,8 +13845,11 @@
       <c r="BX50">
         <v>1.00249598437929</v>
       </c>
+      <c r="BY50">
+        <v>0.997256230162473</v>
+      </c>
     </row>
-    <row r="51" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -14957,8 +14049,11 @@
       <c r="BX51">
         <v>1.00249096813338</v>
       </c>
+      <c r="BY51">
+        <v>0.99725122969722901</v>
+      </c>
     </row>
-    <row r="52" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -15167,8 +14262,11 @@
       <c r="BX52">
         <v>1.00248457007559</v>
       </c>
+      <c r="BY52">
+        <v>0.99724477428407998</v>
+      </c>
     </row>
-    <row r="53" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -15368,8 +14466,11 @@
       <c r="BX53">
         <v>1.0024692435952101</v>
       </c>
+      <c r="BY53">
+        <v>0.99722877748203598</v>
+      </c>
     </row>
-    <row r="54" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -15569,8 +14670,11 @@
       <c r="BX54">
         <v>1.00246553987386</v>
       </c>
+      <c r="BY54">
+        <v>0.99722472879762702</v>
+      </c>
     </row>
-    <row r="55" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -15770,8 +14874,11 @@
       <c r="BX55">
         <v>1.00246218915153</v>
       </c>
+      <c r="BY55">
+        <v>0.99722096008841599</v>
+      </c>
     </row>
-    <row r="56" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -15962,8 +15069,11 @@
       <c r="BX56">
         <v>1.00245969418908</v>
       </c>
+      <c r="BY56">
+        <v>0.99721806169824501</v>
+      </c>
     </row>
-    <row r="57" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -16154,8 +15264,11 @@
       <c r="BX57">
         <v>1.00245731759609</v>
       </c>
+      <c r="BY57">
+        <v>0.99721519405302805</v>
+      </c>
     </row>
-    <row r="58" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -16346,8 +15459,11 @@
       <c r="BX58">
         <v>1.00245502503519</v>
       </c>
+      <c r="BY58">
+        <v>0.99721227461346995</v>
+      </c>
     </row>
-    <row r="59" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -16556,8 +15672,11 @@
       <c r="BX59">
         <v>1.00245037085488</v>
       </c>
+      <c r="BY59">
+        <v>0.99720474809494197</v>
+      </c>
     </row>
-    <row r="60" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -16766,8 +15885,11 @@
       <c r="BX60">
         <v>1.0024501351355199</v>
       </c>
+      <c r="BY60">
+        <v>0.997203889312132</v>
+      </c>
     </row>
-    <row r="61" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -16976,8 +16098,11 @@
       <c r="BX61">
         <v>1.0024500858402801</v>
       </c>
+      <c r="BY61">
+        <v>0.99720319195343399</v>
+      </c>
     </row>
-    <row r="62" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -17186,8 +16311,11 @@
       <c r="BX62">
         <v>1.0024502168565801</v>
       </c>
+      <c r="BY62">
+        <v>0.99720265344158798</v>
+      </c>
     </row>
-    <row r="63" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -17378,8 +16506,11 @@
       <c r="BX63">
         <v>1.0024505682050699</v>
       </c>
+      <c r="BY63">
+        <v>0.99720223178698497</v>
+      </c>
     </row>
-    <row r="64" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -17579,8 +16710,11 @@
       <c r="BX64">
         <v>1.00245112822407</v>
       </c>
+      <c r="BY64">
+        <v>0.99720199258067999</v>
+      </c>
     </row>
-    <row r="65" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -17780,8 +16914,11 @@
       <c r="BX65">
         <v>1.0024518703712599</v>
       </c>
+      <c r="BY65">
+        <v>0.997201928792394</v>
+      </c>
     </row>
-    <row r="66" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -17989,6 +17126,9 @@
       </c>
       <c r="BX66">
         <v>1.0024535550296401</v>
+      </c>
+      <c r="BY66">
+        <v>0.99720219009081501</v>
       </c>
     </row>
   </sheetData>
@@ -17999,10 +17139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83525181-36B5-47CF-9BB9-BC13CB8532D9}">
-  <dimension ref="B1:F39"/>
+  <dimension ref="B1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F39"/>
+      <selection activeCell="G39" sqref="G6:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18010,7 +17150,7 @@
     <col min="3" max="3" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>0.99762025965577705</v>
       </c>
@@ -18026,8 +17166,11 @@
       <c r="F1">
         <v>1.00266748182953</v>
       </c>
+      <c r="G1">
+        <v>0.99740881654943203</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0.99761680338092396</v>
       </c>
@@ -18043,8 +17186,11 @@
       <c r="F2">
         <v>1.00259380006454</v>
       </c>
+      <c r="G2">
+        <v>0.997332115008989</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0.99761079304370703</v>
       </c>
@@ -18060,8 +17206,11 @@
       <c r="F3">
         <v>1.00258327327664</v>
       </c>
+      <c r="G3">
+        <v>0.99732145571721498</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.99760962053703295</v>
       </c>
@@ -18077,8 +17226,11 @@
       <c r="F4">
         <v>1.0025706662270899</v>
       </c>
+      <c r="G4">
+        <v>0.99730885250212697</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.99759332534052103</v>
       </c>
@@ -18094,8 +17246,11 @@
       <c r="F5">
         <v>1.0025695532773999</v>
       </c>
+      <c r="G5">
+        <v>0.99730775000565997</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.99759212724769997</v>
       </c>
@@ -18111,8 +17266,11 @@
       <c r="F6">
         <v>1.00255164368519</v>
       </c>
+      <c r="G6">
+        <v>0.99729030596727197</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.99758543278377798</v>
       </c>
@@ -18128,8 +17286,11 @@
       <c r="F7">
         <v>1.0025458214704199</v>
       </c>
+      <c r="G7">
+        <v>0.99728479122013203</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.99757828877438504</v>
       </c>
@@ -18145,8 +17306,11 @@
       <c r="F8">
         <v>1.0025426400375901</v>
       </c>
+      <c r="G8">
+        <v>0.99728182190004899</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.99757603704711495</v>
       </c>
@@ -18162,8 +17326,11 @@
       <c r="F9">
         <v>1.00254043035986</v>
       </c>
+      <c r="G9">
+        <v>0.99727978102119497</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.99756591627423397</v>
       </c>
@@ -18179,8 +17346,11 @@
       <c r="F10">
         <v>1.00253032820298</v>
       </c>
+      <c r="G10">
+        <v>0.99727074451493203</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.99755811253908899</v>
       </c>
@@ -18196,8 +17366,11 @@
       <c r="F11">
         <v>1.0025276114916399</v>
       </c>
+      <c r="G11">
+        <v>0.99726842588873998</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.99754874502816104</v>
       </c>
@@ -18213,8 +17386,11 @@
       <c r="F12">
         <v>1.0026627818462099</v>
       </c>
+      <c r="G12">
+        <v>0.99740384761731005</v>
+      </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.99754791671843501</v>
       </c>
@@ -18230,8 +17406,11 @@
       <c r="F13">
         <v>1.0025258716922301</v>
       </c>
+      <c r="G13">
+        <v>0.99726697573310996</v>
+      </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.99753454797609897</v>
       </c>
@@ -18247,8 +17426,11 @@
       <c r="F14">
         <v>1.00251836455362</v>
       </c>
+      <c r="G14">
+        <v>0.99726118748205494</v>
+      </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.99753018116178105</v>
       </c>
@@ -18264,8 +17446,11 @@
       <c r="F15">
         <v>1.0025158718377101</v>
       </c>
+      <c r="G15">
+        <v>0.997259550023885</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.997527789132992</v>
       </c>
@@ -18281,8 +17466,11 @@
       <c r="F16">
         <v>1.00251449178269</v>
       </c>
+      <c r="G16">
+        <v>0.99725876000273095</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.997526124880729</v>
       </c>
@@ -18298,8 +17486,11 @@
       <c r="F17">
         <v>1.00251271165954</v>
       </c>
+      <c r="G17">
+        <v>0.99725795039542997</v>
+      </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0.99751847716292796</v>
       </c>
@@ -18315,8 +17506,11 @@
       <c r="F18">
         <v>1.0025119573431001</v>
       </c>
+      <c r="G18">
+        <v>0.997257727143818</v>
+      </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0.99751640566668598</v>
       </c>
@@ -18332,8 +17526,11 @@
       <c r="F19">
         <v>1.0025110997642901</v>
       </c>
+      <c r="G19">
+        <v>0.99725763939604595</v>
+      </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0.99751507444737497</v>
       </c>
@@ -18349,8 +17546,11 @@
       <c r="F20">
         <v>1.0025103538531901</v>
       </c>
+      <c r="G20">
+        <v>0.99725788260842796</v>
+      </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.997509267870338</v>
       </c>
@@ -18366,8 +17566,11 @@
       <c r="F21">
         <v>1.0025101035606601</v>
       </c>
+      <c r="G21">
+        <v>0.99725815003891005</v>
+      </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0.99750730194935899</v>
       </c>
@@ -18383,8 +17586,11 @@
       <c r="F22">
         <v>1.00250992923023</v>
       </c>
+      <c r="G22">
+        <v>0.99725853913515095</v>
+      </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0.99750619803516605</v>
       </c>
@@ -18400,8 +17606,11 @@
       <c r="F23">
         <v>1.0026546122368101</v>
       </c>
+      <c r="G23">
+        <v>0.99739522980757001</v>
+      </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0.99750474622687801</v>
       </c>
@@ -18417,8 +17626,11 @@
       <c r="F24">
         <v>1.00250984497069</v>
       </c>
+      <c r="G24">
+        <v>0.99725909936146595</v>
+      </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0.99750411508377701</v>
       </c>
@@ -18434,8 +17646,11 @@
       <c r="F25">
         <v>1.00250989016869</v>
       </c>
+      <c r="G25">
+        <v>0.99725990704947198</v>
+      </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>0.99750337543568202</v>
       </c>
@@ -18451,8 +17666,11 @@
       <c r="F26">
         <v>1.0025100145475501</v>
       </c>
+      <c r="G26">
+        <v>0.997260589397578</v>
+      </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0.99750268956709098</v>
       </c>
@@ -18468,8 +17686,11 @@
       <c r="F27">
         <v>1.0025102660167999</v>
       </c>
+      <c r="G27">
+        <v>0.99726152964224002</v>
+      </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0.99750243468814404</v>
       </c>
@@ -18485,8 +17706,11 @@
       <c r="F28">
         <v>1.0025108161493901</v>
       </c>
+      <c r="G28">
+        <v>0.99726309303632499</v>
+      </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0.997502230165354</v>
       </c>
@@ -18502,8 +17726,11 @@
       <c r="F29">
         <v>1.00251180406759</v>
       </c>
+      <c r="G29">
+        <v>0.99726538126639996</v>
+      </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0.99750208177544897</v>
       </c>
@@ -18519,8 +17746,11 @@
       <c r="F30">
         <v>1.00251276309104</v>
       </c>
+      <c r="G30">
+        <v>0.99726734673035999</v>
+      </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.99750201386499904</v>
       </c>
@@ -18536,8 +17766,11 @@
       <c r="F31">
         <v>1.00251391230467</v>
       </c>
+      <c r="G31">
+        <v>0.99726953420352604</v>
+      </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0.99750203200873899</v>
       </c>
@@ -18553,8 +17786,11 @@
       <c r="F32">
         <v>1.0025154458803101</v>
       </c>
+      <c r="G32">
+        <v>0.99727228384607802</v>
+      </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.99750212716911102</v>
       </c>
@@ -18570,8 +17806,11 @@
       <c r="F33">
         <v>1.00251697270058</v>
       </c>
+      <c r="G33">
+        <v>0.99727489758202603</v>
+      </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0.99750240104422305</v>
       </c>
@@ -18587,8 +17826,11 @@
       <c r="F34">
         <v>1.00265301903758</v>
       </c>
+      <c r="G34">
+        <v>0.99739355219744796</v>
+      </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0.99750296198445898</v>
       </c>
@@ -18604,8 +17846,11 @@
       <c r="F35">
         <v>1.00263089766581</v>
       </c>
+      <c r="G35">
+        <v>0.99737037214549895</v>
+      </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0.99750354057219404</v>
       </c>
@@ -18621,8 +17866,11 @@
       <c r="F36">
         <v>1.0026292728661099</v>
       </c>
+      <c r="G36">
+        <v>0.99736867876498503</v>
+      </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0.99750425623535099</v>
       </c>
@@ -18638,8 +17886,11 @@
       <c r="F37">
         <v>1.0026201988900001</v>
       </c>
+      <c r="G37">
+        <v>0.997359248131089</v>
+      </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0.99750523381100498</v>
       </c>
@@ -18655,8 +17906,11 @@
       <c r="F38">
         <v>1.00261052530686</v>
       </c>
+      <c r="G38">
+        <v>0.99734924823593696</v>
+      </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.99750622355832397</v>
       </c>
@@ -18671,6 +17925,9 @@
       </c>
       <c r="F39">
         <v>1.0026074785788299</v>
+      </c>
+      <c r="G39">
+        <v>0.99734611148493801</v>
       </c>
     </row>
   </sheetData>
